--- a/src/main/resources/static/template/purchase.xlsx
+++ b/src/main/resources/static/template/purchase.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="采购清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -111,11 +111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,12 +434,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -450,7 +450,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
